--- a/benchmark/graph.xlsx
+++ b/benchmark/graph.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_takami\git\benchmark.compression\benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t_takami\git\benchmark-compression\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16095" windowHeight="11610" tabRatio="694" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Norm(μ=0,σ2=100) Rand IntArray" sheetId="1" r:id="rId1"/>
-    <sheet name="Japanese UTF-8 (2)" sheetId="4" r:id="rId2"/>
-    <sheet name="Japanese UTF-8" sheetId="2" r:id="rId3"/>
+    <sheet name="Norm(μ=0,σ2=1) Rand DoubleArray" sheetId="5" r:id="rId2"/>
+    <sheet name="US-ASCII Text" sheetId="4" r:id="rId3"/>
+    <sheet name="Japanese UTF-8" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="17">
   <si>
     <t>lz4</t>
     <phoneticPr fontId="1"/>
@@ -91,14 +92,18 @@
     <t>U</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>brotli</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="0.0%"/>
-    <numFmt numFmtId="181" formatCode="#,##0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -167,16 +172,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -257,7 +262,7 @@
               <a:rPr lang="en-US" altLang="ja-JP" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Random Int[2,621,440] Array</a:t>
+              <a:t>Random Int[2621440] Array</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -343,7 +348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74EC2B8D-D299-4F80-9D56-D47A585A24A2}" type="CELLRANGE">
+                    <a:fld id="{BCD99AD6-2CB9-48BE-8CAE-46E55668326D}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -363,7 +368,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -376,8 +380,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF0AFE47-66C8-4E23-9054-5D7FA2AADD9F}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{82892807-AFF2-45DC-9543-8064CFA9F0AB}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -409,8 +413,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3A656F69-3B10-4C44-B46A-0D83EEDDFD5F}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{C283ED70-563A-4155-9730-BC56CF375C57}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -442,8 +446,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FFDADB4-95E6-4EB7-8CC9-5F593FBB7174}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{7F71402F-8E5F-4AFA-8163-1C6BA8AB8F78}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -475,8 +479,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03BA7340-B5D0-4131-8ACC-165B02F8FA13}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{1D15919C-B7FC-43BD-A40F-01E68E2781B8}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -508,8 +512,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{283C2B93-57EE-4E6C-B9D8-E475D74AA9F9}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{67C44F2C-5AF2-482A-B262-FA0B8469E8EA}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -541,8 +545,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8119D75-68A5-40C2-B1D9-1635EDCCD895}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{67FEE0BE-1C75-406D-A73D-53B70329D7A2}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -568,7 +572,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -586,15 +589,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -612,15 +611,11 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -638,9 +633,39 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{87F51740-6CDD-402B-8F57-73ABB34DC624}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -705,10 +730,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Norm(μ=0,σ2=100) Rand IntArray'!$B$3:$B$12</c:f>
+              <c:f>'Norm(μ=0,σ2=100) Rand IntArray'!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1003.7</c:v>
                 </c:pt>
@@ -729,16 +754,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>928.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>426.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Norm(μ=0,σ2=100) Rand IntArray'!$C$3:$C$12</c:f>
+              <c:f>'Norm(μ=0,σ2=100) Rand IntArray'!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.51300000000000001</c:v>
                 </c:pt>
@@ -759,6 +787,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78500000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,9 +798,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Norm(μ=0,σ2=100) Rand IntArray'!$A$3:$A$12</c15:f>
+                <c15:f>'Norm(μ=0,σ2=100) Rand IntArray'!$A$3:$A$13</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="11"/>
                   <c:pt idx="0">
                     <c:v>snappy</c:v>
                   </c:pt>
@@ -799,6 +830,9 @@
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>bzip2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>brotli</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -850,7 +884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF768A7A-A8D0-455A-9716-4DBE12FC37E3}" type="CELLRANGE">
+                    <a:fld id="{98980B93-DD5B-4C13-B663-FC1A29A7D50A}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -870,7 +904,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -883,8 +916,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F815DBBF-1027-47EA-B03C-891B2074B30D}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{B8B98F64-853B-46DF-9462-9E3FD64B91FE}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -916,8 +949,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4C66299-EC82-400B-837B-E3E4C07B9502}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{C9B6CB29-6DDF-4204-BAD9-30AD03843A97}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -949,8 +982,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB34A669-38FA-4F5D-B8C6-672BCC4786BB}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{3E5F6C48-5452-4CBE-A4D3-64549E059540}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -982,8 +1015,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D477E61-9E63-4F0D-BE06-3D3841406A13}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{994F2763-1F87-4FB1-A2C5-FC6D6F8E7B37}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1015,8 +1048,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74C77389-FEB3-48C1-ACAC-277689C5A994}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{59AB9706-C63B-42D8-BDD8-405797137613}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1048,8 +1081,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{315870F2-3A30-4878-A9E3-04FB55272611}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{83968822-49B7-4C2C-8E25-CE5D171435BB}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1081,8 +1114,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FAC4DB3-DFF4-49CB-AE42-216A2577595C}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{1D0A454A-8A42-4461-A854-3DEF06A317AB}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1114,8 +1147,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2E4F1D0-D304-45CA-A36B-910AEF0BBC02}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{4D6F1AC6-CD6D-44D4-B4C2-CC03A0B959B1}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1147,8 +1180,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9BEFF24-30FE-4C4F-8A6A-30276E908E0A}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                    <a:fld id="{9EFD64AB-4C77-4761-BE67-C0ABC97ACA6C}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
@@ -1352,7 +1385,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1360,11 +1392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1459166544"/>
-        <c:axId val="-1684513456"/>
+        <c:axId val="412342832"/>
+        <c:axId val="584563184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1459166544"/>
+        <c:axId val="412342832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,14 +1496,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1684513456"/>
+        <c:crossAx val="584563184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1684513456"/>
+        <c:axId val="584563184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1510,7 +1543,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>Reduction Rate</a:t>
+                  <a:t>Compression Rate</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
@@ -1581,7 +1614,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1459166544"/>
+        <c:crossAx val="412342832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1682,13 +1715,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1699,7 +1746,31 @@
               <a:rPr lang="en-US" altLang="ja-JP" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>United States Declaration of Independence, ASCII Text</a:t>
+              <a:t>Norm(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" altLang="ja-JP" b="1" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>μ=0,σ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" altLang="ja-JP" b="1" i="0" baseline="30000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" altLang="ja-JP" b="1" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>=1) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" b="1" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Random Double[1310720] Array</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1717,13 +1788,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1745,7 +1830,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Japanese UTF-8 (2)'!$B$1</c:f>
+              <c:f>'Norm(μ=0,σ2=1) Rand DoubleArray'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1785,7 +1870,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{423424D5-ED7B-4771-8CD7-BC150C7D2144}" type="CELLRANGE">
+                    <a:fld id="{07F2071A-B040-41D0-8444-E0E363B6FD87}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1817,7 +1902,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC8D46FD-CB28-444F-8553-CA7502EFDE3A}" type="CELLRANGE">
+                    <a:fld id="{B0383A8C-A840-4314-AD6D-CD4A16F2D142}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1850,7 +1935,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F93721E3-F9B2-40BE-A987-8C417EC5F18C}" type="CELLRANGE">
+                    <a:fld id="{90DAC494-3103-4DFE-B955-440EB742CBB1}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1883,7 +1968,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CEA62EF-B284-46A2-84C4-498332EDEF9D}" type="CELLRANGE">
+                    <a:fld id="{294E2648-07E8-47BD-A5DE-3537FA192284}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1916,7 +2001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8ECFA2EB-F983-4A7B-B204-E9C13A67FF84}" type="CELLRANGE">
+                    <a:fld id="{44849889-9150-4840-9090-33D46AD48073}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1949,7 +2034,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9BD024C-373C-4772-9AB6-EE2FDEBF5C43}" type="CELLRANGE">
+                    <a:fld id="{30AF2698-05CC-4FB7-BEA3-72627D9829BF}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1982,7 +2067,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3294964-FFD2-4FCA-BA42-B20C7F4F8540}" type="CELLRANGE">
+                    <a:fld id="{3CAB68CE-CA3E-459B-A54C-7351085685F4}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2073,509 +2158,15 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Japanese UTF-8 (2)'!$B$3:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1659.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2339.6999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>565.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>246.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>468.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>413.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>286.39999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Japanese UTF-8 (2)'!$C$3:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.307</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.54500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>'Japanese UTF-8 (2)'!$A$3:$A$12</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>snappy</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>lz4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>zstd (level=1)</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>zstd (level=3)</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>zstd (level=6)</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>zstd (level=9)</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>zstd (level=16)</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>zlib</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>gzip</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>bzip2</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Japanese UTF-8 (2)'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stream</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B37A78B-DAA6-4D61-9B24-F95EE9A553A6}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E7CC6011-F66B-4932-9FF1-15AB154594D4}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{544C8550-F8AF-4F57-BCF8-2472BAE8CC99}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{35BA47B8-C982-4C88-A870-DB12F4F4E682}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{9F55F71A-8DF5-4684-85A3-6CA1818494B7}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{DB484F30-75A2-4397-A802-B4C72B6BF86C}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B15A9A03-9D7D-4476-B306-A6AF4AB4B2A2}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{ADAACE81-9135-47E3-8B6A-4F82ED0742BC}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D50510BC-BDAC-43F5-AC21-B99F543A7A7E}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A925C12B-D490-49DE-869E-15F50ED5966C}" type="CELLRANGE">
+                    <a:fld id="{7A44828D-A95A-464A-A64F-E7D82532BD2A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2661,78 +2252,66 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Japanese UTF-8 (2)'!$D$3:$D$12</c:f>
+              <c:f>'Norm(μ=0,σ2=1) Rand DoubleArray'!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1254.0999999999999</c:v>
+                  <c:v>8704.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1200.5999999999999</c:v>
+                  <c:v>11915.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113.9</c:v>
+                  <c:v>714.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110</c:v>
+                  <c:v>714.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.7</c:v>
+                  <c:v>718.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103.8</c:v>
+                  <c:v>708.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>157.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>116.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.100000000000001</c:v>
+                  <c:v>699.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Japanese UTF-8 (2)'!$E$3:$E$12</c:f>
+              <c:f>'Norm(μ=0,σ2=1) Rand DoubleArray'!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.30399999999999999</c:v>
+                  <c:v>-5.0000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>-4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.503</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52800000000000002</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53800000000000003</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53900000000000003</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.54300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54100000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.57799999999999996</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2741,7 +2320,555 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Japanese UTF-8 (2)'!$A$3:$A$12</c15:f>
+                <c15:f>'Norm(μ=0,σ2=1) Rand DoubleArray'!$A$3:$A$13</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>snappy</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>lz4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>zstd (level=1)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>zstd (level=3)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>zstd (level=6)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>zstd (level=9)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>zstd (level=16)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>zlib</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>gzip</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>bzip2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>brotli</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Norm(μ=0,σ2=1) Rand DoubleArray'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stream</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FB63EFA2-4541-43EC-BFF5-2D80738AB320}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E76B1B44-2597-4428-8F4B-714C0201AE41}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BB8458B9-0780-49DE-B1D3-DEE79D6D51A3}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{88D78843-8F84-4FCE-91DB-48C6E9F80BCC}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{312E28B6-45A6-49D1-8CCE-44864A809047}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6E956903-8070-4850-8CFC-5443A8BDCD28}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6B827E87-1D8A-433A-B734-AC7668D2DC70}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{90D237BA-AE02-4CFD-BB04-D8B55B661E65}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AF49AE39-9BB8-4E33-8E23-656867480531}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7AF3D4B5-EB9F-4375-8D1F-596A534CC786}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Norm(μ=0,σ2=1) Rand DoubleArray'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4910</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3127.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>636.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>618.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>591.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>587.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>578.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Norm(μ=0,σ2=1) Rand DoubleArray'!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Norm(μ=0,σ2=1) Rand DoubleArray'!$A$3:$A$12</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
@@ -2787,11 +2914,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1462842640"/>
-        <c:axId val="-1462846992"/>
+        <c:axId val="827767216"/>
+        <c:axId val="827779728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1462842640"/>
+        <c:axId val="827767216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,12 +3018,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462846992"/>
+        <c:crossAx val="827779728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1462846992"/>
+        <c:axId val="827779728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2937,7 +3064,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>Reduction Rate</a:t>
+                  <a:t>Compression Rate</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
@@ -3008,7 +3135,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1462842640"/>
+        <c:crossAx val="827767216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3123,16 +3250,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" b="1" i="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>夏目漱石 こころ</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>, Japanese UTF-8 Text</a:t>
+              <a:t>United States Declaration of Independence, ASCII Text</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3178,7 +3299,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Japanese UTF-8'!$B$1</c:f>
+              <c:f>'US-ASCII Text'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3218,7 +3339,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF46C59F-0E07-4DEE-A1BA-CD7E5B7C5A92}" type="CELLRANGE">
+                    <a:fld id="{4D06A9E6-2B87-4078-9E6A-7CE7BDC8B6AD}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3250,7 +3371,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B862E2CC-F78A-4626-8E18-4923171E0AE9}" type="CELLRANGE">
+                    <a:fld id="{FB50280E-67B3-48A5-B7E9-37D610BB77F1}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3283,7 +3404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59D56571-F0C2-4294-A850-9801C63A1903}" type="CELLRANGE">
+                    <a:fld id="{BD7EB289-2BDF-4418-83E1-AAD5966A2840}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3316,7 +3437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60E8241E-0031-4B60-9846-D639DE02DBCA}" type="CELLRANGE">
+                    <a:fld id="{32D9DDFE-6648-4BDE-B29A-5281872A21B9}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3349,7 +3470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B873CBE-E455-430F-A79B-3C3882CA3D44}" type="CELLRANGE">
+                    <a:fld id="{10A187C3-36D2-4F7A-AA33-C57F18082265}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3382,7 +3503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8A3F891-684B-4BB5-BDDD-791193065689}" type="CELLRANGE">
+                    <a:fld id="{1146CD5F-39FA-4C34-9B14-52D73416F3D5}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3415,7 +3536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71F18FFE-BB7F-4D80-BE65-83DD16996E7B}" type="CELLRANGE">
+                    <a:fld id="{D7ABB203-6458-47A4-862E-FDDF25AB51C0}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3506,509 +3627,15 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Japanese UTF-8'!$B$3:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1099.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1899.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>763</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>739.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>723.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>831.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>853.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Japanese UTF-8'!$C$3:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.47399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.44900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.64400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.68200000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69799999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.74</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>'Japanese UTF-8'!$A$3:$A$12</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="10"/>
-                  <c:pt idx="0">
-                    <c:v>snappy</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>lz4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>zstd (level=1)</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>zstd (level=3)</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>zstd (level=6)</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>zstd (level=9)</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>zstd (level=16)</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>zlib</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>gzip</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>bzip2</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Japanese UTF-8'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stream</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="10"/>
               <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAB7823A-2A50-4BBF-932E-721A4DDE211A}" type="CELLRANGE">
-                      <a:rPr lang="en-US" altLang="ja-JP"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0001EBDA-DA58-4E57-9136-75FEB459399A}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F950F395-FE97-4B17-AFBA-EC99CFEF3A4F}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{479D373A-0375-4067-8D75-9A7DEE807C37}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{044C99F8-C08A-4882-A780-B93871F74FB3}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F6BF2914-5CF6-43D8-9D51-D8B9DAC12F0F}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{CDF34C38-3CAB-48F9-A3D5-B7269CD3D6CF}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{7BAB8B06-5267-4DCD-A895-1F547D1CE16E}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8D08FC4D-BBB2-4A59-A518-AD9E34669124}" type="CELLRANGE">
-                      <a:rPr lang="ja-JP" altLang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8ACBE8E3-7F9E-42DE-B0E1-4D8B8F7B2E9D}" type="CELLRANGE">
+                    <a:fld id="{C7015DED-D639-4D73-BBFC-75648F8D6C04}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4094,78 +3721,66 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Japanese UTF-8'!$D$3:$D$12</c:f>
+              <c:f>'US-ASCII Text'!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>955</c:v>
+                  <c:v>1659.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1283.5</c:v>
+                  <c:v>2339.6999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>564.20000000000005</c:v>
+                  <c:v>565.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>542.1</c:v>
+                  <c:v>246.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>561.1</c:v>
+                  <c:v>468.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>597.5</c:v>
+                  <c:v>413.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>616.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>252.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>264.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29.5</c:v>
+                  <c:v>286.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>192.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Japanese UTF-8'!$E$3:$E$12</c:f>
+              <c:f>'US-ASCII Text'!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.45500000000000002</c:v>
+                  <c:v>0.307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.441</c:v>
+                  <c:v>0.30599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64400000000000002</c:v>
+                  <c:v>0.51700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68200000000000005</c:v>
+                  <c:v>0.52800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69799999999999995</c:v>
+                  <c:v>0.54400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71</c:v>
+                  <c:v>0.54500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.68500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.68500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.78700000000000003</c:v>
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4174,7 +3789,555 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Japanese UTF-8'!$A$3:$A$12</c15:f>
+                <c15:f>'US-ASCII Text'!$A$3:$A$13</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>snappy</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>lz4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>zstd (level=1)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>zstd (level=3)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>zstd (level=6)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>zstd (level=9)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>zstd (level=16)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>zlib</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>gzip</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>bzip2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>brotli</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'US-ASCII Text'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stream</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E7AEDABC-2E43-46B5-9DB1-F550BCB531B9}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{33E41267-A12A-4CB0-8482-E0045CEB5A18}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DD38AF21-72B1-40B3-BC1C-C705C253B0AD}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2883F601-940E-4687-99BC-DAD02587A26A}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{11D9E105-B29F-455D-A0B3-6EA884A6DF31}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3C96F1EB-23AD-4BE5-A1D9-02BA52958698}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{11D88234-C2F3-4DBD-9B78-EF9146550D5F}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2B55A028-A6A9-470C-B998-427021E1CD92}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5FC7274E-3408-4F75-A09C-75BE3A71D16C}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E7984703-4F79-4A71-826F-82582D9195A5}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'US-ASCII Text'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1254.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>157.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>116.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'US-ASCII Text'!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'US-ASCII Text'!$A$3:$A$12</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
@@ -4220,11 +4383,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1459164912"/>
-        <c:axId val="-1459164368"/>
+        <c:axId val="412051136"/>
+        <c:axId val="412053312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1459164912"/>
+        <c:axId val="412051136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4324,14 +4487,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1459164368"/>
+        <c:crossAx val="412053312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1459164368"/>
+        <c:axId val="412053312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4370,7 +4534,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>Reduction Rate</a:t>
+                  <a:t>Compression Rate</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
@@ -4441,7 +4605,1483 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1459164912"/>
+        <c:crossAx val="412051136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>夏目漱石 こころ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" b="1" i="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>, Japanese UTF-8 Text</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Japanese UTF-8'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Block</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B6111768-0991-4782-A41F-78875DE16BE5}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A8B86F40-A50A-42CA-A61D-E8AB8CCAC41B}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{61B49926-7E8E-43D6-BC10-EF41EA5834D7}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{15E67E67-323E-4DA9-913E-83F66445B430}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{65D16379-CB99-49CC-A694-5D94E9A9EAE4}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4F17F37A-BE3F-4922-B51B-32EDD64587D2}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4B0FF08E-2B65-40B8-A74A-4A9DD3DBB771}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0EBF18A8-BC1F-45E4-AE6D-C75059EC7B99}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Japanese UTF-8'!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1099.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1899.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>739.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>723.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>831.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>853.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>434.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Japanese UTF-8'!$C$3:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.47399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Japanese UTF-8'!$A$3:$A$13</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>snappy</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>lz4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>zstd (level=1)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>zstd (level=3)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>zstd (level=6)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>zstd (level=9)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>zstd (level=16)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>zlib</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>gzip</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>bzip2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>brotli</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Japanese UTF-8'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stream</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5D7ED2A4-4B16-429F-AFB9-211151DCAE97}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ja-JP"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{48D43CCC-6F47-4856-B4BB-E4582A1A97A1}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{94F7E946-84D8-4ABD-BD5B-363F16BD2313}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DB9B06A3-2901-40A4-BEE7-B098162703BD}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{65CCF407-A6B2-4F12-BE24-B1D671743BFF}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CC545A2C-DFB6-47EF-8398-8A9711CFB884}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8217EC40-0B2C-4C86-BFBA-E2E7CDC608BE}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{759D5A9F-129B-433C-A6A7-60A208F85ADF}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AF0068C1-5A16-496B-931D-2AAC12917B42}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E594004F-AEA6-42ED-B177-9867CEC2C768}" type="CELLRANGE">
+                      <a:rPr lang="ja-JP" altLang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Japanese UTF-8'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1283.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>564.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>542.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>561.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>597.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>616.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>264.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Japanese UTF-8'!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Japanese UTF-8'!$A$3:$A$12</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>snappy</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>lz4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>zstd (level=1)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>zstd (level=3)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>zstd (level=6)</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>zstd (level=9)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>zstd (level=16)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>zlib</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>gzip</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>bzip2</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="705162080"/>
+        <c:axId val="705164800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="705162080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Decompression Speed [MB/sec]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705164800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="705164800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Compression Rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705162080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4642,6 +6282,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5649,6 +7329,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6224,6 +8407,43 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6523,10 +8743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6536,190 +8756,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1003.7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>874.4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1084.5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.30199999999999999</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>812.4</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>629.5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.71099999999999997</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>572.70000000000005</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.71099999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>632.70000000000005</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.72699999999999998</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>577.5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.72699999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>689.7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.73799999999999999</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>591.20000000000005</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.73799999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>719.6</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.74099999999999999</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>626.6</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>928.4</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.78200000000000003</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>716.1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3">
         <v>325.39999999999998</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3">
         <v>346.9</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3">
         <v>29</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.81899999999999995</v>
       </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>426.2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6736,10 +8969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6748,191 +8981,207 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>1659.8</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.307</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1254.0999999999999</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.30399999999999999</v>
+      <c r="B3" s="3">
+        <v>8704.1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-5.0000000000000002E-5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4910</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
-        <v>2339.6999999999998</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1200.5999999999999</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.30199999999999999</v>
+      <c r="B4" s="3">
+        <v>11915.8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3127.1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
-        <v>565.20000000000005</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="D5" s="4">
-        <v>113.9</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.503</v>
+      <c r="B5" s="3">
+        <v>714.8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>636.70000000000005</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
-        <v>246.3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="D6" s="4">
-        <v>110</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.52800000000000002</v>
+      <c r="B6" s="3">
+        <v>714.6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>618.9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>468.7</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="D7" s="4">
-        <v>103.7</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.53800000000000003</v>
+      <c r="B7" s="3">
+        <v>718.2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>591.9</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
-        <v>413.9</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="D8" s="4">
-        <v>103.8</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.53900000000000003</v>
+      <c r="B8" s="3">
+        <v>708.9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>587.20000000000005</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
-        <v>286.39999999999998</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D9" s="4">
-        <v>85.1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.54400000000000004</v>
+      <c r="B9" s="3">
+        <v>699.9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>578.9</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4">
-        <v>157.1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.54300000000000004</v>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3">
+        <v>191.4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.9E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4">
-        <v>116.6</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.54100000000000004</v>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3">
+        <v>195</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.9E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.57799999999999996</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>96.1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6949,10 +9198,236 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1659.8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.307</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1254.0999999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2339.6999999999998</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1200.5999999999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>565.20000000000005</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>113.9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>246.3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>110</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>468.7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="D7" s="3">
+        <v>103.7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>413.9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="D8" s="3">
+        <v>103.8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>286.39999999999998</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D9" s="3">
+        <v>85.1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3">
+        <v>157.1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3">
+        <v>116.6</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>192.5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6962,132 +9437,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1099.3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.47399999999999998</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>955</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1899.7</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.44900000000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1283.5</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>0.441</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>763</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.64400000000000002</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>564.20000000000005</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>739.1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.68200000000000005</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>542.1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.68200000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>723.2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.69799999999999995</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>561.1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>831.1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.71</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>597.5</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.71</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -7095,60 +9570,73 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>853.3</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.74</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>616.70000000000005</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.74</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3">
         <v>252.8</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.68500000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3">
         <v>264.10000000000002</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.68500000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3">
         <v>29.5</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.78700000000000003</v>
       </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>434.2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.746</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/benchmark/graph.xlsx
+++ b/benchmark/graph.xlsx
@@ -348,7 +348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCD99AD6-2CB9-48BE-8CAE-46E55668326D}" type="CELLRANGE">
+                    <a:fld id="{FDD1CE3A-06F1-4CEA-9D02-C9DF06BC69BF}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -380,7 +380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82892807-AFF2-45DC-9543-8064CFA9F0AB}" type="CELLRANGE">
+                    <a:fld id="{00765073-BBD6-4879-9C86-34BEE857D4D2}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -413,7 +413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C283ED70-563A-4155-9730-BC56CF375C57}" type="CELLRANGE">
+                    <a:fld id="{D1F94EBE-0F1B-4275-8BBA-18F5EC692942}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -446,7 +446,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F71402F-8E5F-4AFA-8163-1C6BA8AB8F78}" type="CELLRANGE">
+                    <a:fld id="{B5CEAFE6-3CAB-4646-92C4-E1A75DC18B59}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -479,7 +479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D15919C-B7FC-43BD-A40F-01E68E2781B8}" type="CELLRANGE">
+                    <a:fld id="{3E0CBEDC-B478-4B0D-A704-943C248B924D}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -512,7 +512,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67C44F2C-5AF2-482A-B262-FA0B8469E8EA}" type="CELLRANGE">
+                    <a:fld id="{3E97B869-E213-42B0-9D0C-B8FFD57AE81F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -545,7 +545,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67FEE0BE-1C75-406D-A73D-53B70329D7A2}" type="CELLRANGE">
+                    <a:fld id="{315614C5-EB05-4A58-A19A-274751E56262}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -644,7 +644,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87F51740-6CDD-402B-8F57-73ABB34DC624}" type="CELLRANGE">
+                    <a:fld id="{5EA79CFE-52A4-40A9-BF10-6C7B1728AF02}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -884,7 +884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98980B93-DD5B-4C13-B663-FC1A29A7D50A}" type="CELLRANGE">
+                    <a:fld id="{CCF60B61-3285-4060-B506-F093C91557EE}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -916,7 +916,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8B98F64-853B-46DF-9462-9E3FD64B91FE}" type="CELLRANGE">
+                    <a:fld id="{BD73E768-35DD-4373-84E0-8B7A54EE15EF}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -949,7 +949,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9B6CB29-6DDF-4204-BAD9-30AD03843A97}" type="CELLRANGE">
+                    <a:fld id="{6F701C8E-8B28-41D8-9B87-4A85FFAA2519}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -982,7 +982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E5F6C48-5452-4CBE-A4D3-64549E059540}" type="CELLRANGE">
+                    <a:fld id="{8A5078CA-7B96-49D1-BAB1-824641FF3BCD}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1015,7 +1015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{994F2763-1F87-4FB1-A2C5-FC6D6F8E7B37}" type="CELLRANGE">
+                    <a:fld id="{0642199C-0137-4127-9B2F-C913B4FBD887}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1048,7 +1048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59AB9706-C63B-42D8-BDD8-405797137613}" type="CELLRANGE">
+                    <a:fld id="{42625283-C0F1-4B3A-B084-7C6EF04B557B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1081,7 +1081,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83968822-49B7-4C2C-8E25-CE5D171435BB}" type="CELLRANGE">
+                    <a:fld id="{28D90A19-9A60-4EA6-B3F1-A037B6745511}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1114,7 +1114,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D0A454A-8A42-4461-A854-3DEF06A317AB}" type="CELLRANGE">
+                    <a:fld id="{D6337DA8-2456-47DE-967E-4CFF0F26B858}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1147,7 +1147,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D6F1AC6-CD6D-44D4-B4C2-CC03A0B959B1}" type="CELLRANGE">
+                    <a:fld id="{F352A4BA-E4DC-43A3-AEAE-D29CD13AB9A0}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1180,7 +1180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EFD64AB-4C77-4761-BE67-C0ABC97ACA6C}" type="CELLRANGE">
+                    <a:fld id="{98B04F6E-09C2-4BF5-B523-6723BC8BF6C5}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1870,7 +1870,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07F2071A-B040-41D0-8444-E0E363B6FD87}" type="CELLRANGE">
+                    <a:fld id="{FF2401D5-06AB-4FE5-B9FC-E6DF4C3A8F5B}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1902,7 +1902,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0383A8C-A840-4314-AD6D-CD4A16F2D142}" type="CELLRANGE">
+                    <a:fld id="{9F9DB5EB-7E7B-4CCC-AC1D-A52E14DF77BB}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1935,7 +1935,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90DAC494-3103-4DFE-B955-440EB742CBB1}" type="CELLRANGE">
+                    <a:fld id="{A18EA315-F4C1-433C-B2C1-AA4A2451A374}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1968,7 +1968,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{294E2648-07E8-47BD-A5DE-3537FA192284}" type="CELLRANGE">
+                    <a:fld id="{B8EC981F-7EDB-4501-B6A0-5D9A81E99D66}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2001,7 +2001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44849889-9150-4840-9090-33D46AD48073}" type="CELLRANGE">
+                    <a:fld id="{B8E7DE07-3C4F-439C-A2DD-54E2071CD55F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2034,7 +2034,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30AF2698-05CC-4FB7-BEA3-72627D9829BF}" type="CELLRANGE">
+                    <a:fld id="{B51D47E1-BF90-45E6-914F-1D585D31CE8F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2067,7 +2067,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CAB68CE-CA3E-459B-A54C-7351085685F4}" type="CELLRANGE">
+                    <a:fld id="{4788597B-936B-48DF-93F8-F074A696C3C5}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2166,7 +2166,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A44828D-A95A-464A-A64F-E7D82532BD2A}" type="CELLRANGE">
+                    <a:fld id="{075855C6-8046-4691-99A4-DDAA53B60A4E}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2406,7 +2406,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB63EFA2-4541-43EC-BFF5-2D80738AB320}" type="CELLRANGE">
+                    <a:fld id="{A3C2D1A6-F0FB-4669-AD58-7C23DAE6E51E}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2438,7 +2438,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E76B1B44-2597-4428-8F4B-714C0201AE41}" type="CELLRANGE">
+                    <a:fld id="{E3E4EAA7-591E-44E3-AD72-7D1A765E21ED}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2471,7 +2471,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB8458B9-0780-49DE-B1D3-DEE79D6D51A3}" type="CELLRANGE">
+                    <a:fld id="{8FE929D3-FA6B-41B3-8E9E-51D184617D80}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2504,7 +2504,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88D78843-8F84-4FCE-91DB-48C6E9F80BCC}" type="CELLRANGE">
+                    <a:fld id="{D6BEC854-17F9-490E-A79B-635A57F72600}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2537,7 +2537,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{312E28B6-45A6-49D1-8CCE-44864A809047}" type="CELLRANGE">
+                    <a:fld id="{96543BF0-EF82-4A3A-ACFC-782F73DEB032}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2570,7 +2570,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E956903-8070-4850-8CFC-5443A8BDCD28}" type="CELLRANGE">
+                    <a:fld id="{ECD26E03-33D2-4F95-AB05-6A6342211EE3}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2603,7 +2603,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B827E87-1D8A-433A-B734-AC7668D2DC70}" type="CELLRANGE">
+                    <a:fld id="{A89DE530-15C6-4B52-9D5D-23E8FD2C90D9}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2636,7 +2636,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90D237BA-AE02-4CFD-BB04-D8B55B661E65}" type="CELLRANGE">
+                    <a:fld id="{94887EE9-634D-40A8-9BA9-968D803DB538}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2669,7 +2669,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF49AE39-9BB8-4E33-8E23-656867480531}" type="CELLRANGE">
+                    <a:fld id="{FBD14036-71F0-4420-B73D-65A272294945}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2702,7 +2702,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AF3D4B5-EB9F-4375-8D1F-596A534CC786}" type="CELLRANGE">
+                    <a:fld id="{33993A28-8F68-4E3B-AA5F-79B9C8DB5152}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3339,7 +3339,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D06A9E6-2B87-4078-9E6A-7CE7BDC8B6AD}" type="CELLRANGE">
+                    <a:fld id="{266EB3A6-169C-4032-BD90-D85F2E28E256}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3371,7 +3371,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB50280E-67B3-48A5-B7E9-37D610BB77F1}" type="CELLRANGE">
+                    <a:fld id="{5A7B520A-6FAB-4150-A547-8B5C862BA1BE}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3404,7 +3404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD7EB289-2BDF-4418-83E1-AAD5966A2840}" type="CELLRANGE">
+                    <a:fld id="{A01E4D62-1CA2-4C16-AC2C-4A43EE570E25}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3437,7 +3437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32D9DDFE-6648-4BDE-B29A-5281872A21B9}" type="CELLRANGE">
+                    <a:fld id="{1C31BEA3-1D43-4E38-A940-121ED44C2316}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3470,7 +3470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10A187C3-36D2-4F7A-AA33-C57F18082265}" type="CELLRANGE">
+                    <a:fld id="{2F71711B-FBF4-4BB5-AB7C-5A98559A2B72}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3503,7 +3503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1146CD5F-39FA-4C34-9B14-52D73416F3D5}" type="CELLRANGE">
+                    <a:fld id="{B0BE3171-B7C5-4B84-AC13-860032B0ECB9}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3536,7 +3536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7ABB203-6458-47A4-862E-FDDF25AB51C0}" type="CELLRANGE">
+                    <a:fld id="{9F85D91C-00A4-4AFD-8AD8-739AD8F36361}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3635,7 +3635,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7015DED-D639-4D73-BBFC-75648F8D6C04}" type="CELLRANGE">
+                    <a:fld id="{4B0F4CDB-4AAD-4746-BFA6-082C1D65BF29}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3875,7 +3875,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7AEDABC-2E43-46B5-9DB1-F550BCB531B9}" type="CELLRANGE">
+                    <a:fld id="{8BBC907C-9C27-4C04-8386-967F88BE4BEA}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3907,7 +3907,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33E41267-A12A-4CB0-8482-E0045CEB5A18}" type="CELLRANGE">
+                    <a:fld id="{5A2991FD-2869-4E32-9DC3-74ED0889409C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3940,7 +3940,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD38AF21-72B1-40B3-BC1C-C705C253B0AD}" type="CELLRANGE">
+                    <a:fld id="{CBC0F473-CDBA-4073-A001-8DBE31D8BB63}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3973,7 +3973,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2883F601-940E-4687-99BC-DAD02587A26A}" type="CELLRANGE">
+                    <a:fld id="{E3A194F2-94A2-42BD-A581-83E862B5CF8C}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4006,7 +4006,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11D9E105-B29F-455D-A0B3-6EA884A6DF31}" type="CELLRANGE">
+                    <a:fld id="{4CCA839B-2E27-406D-80E7-8560C1F27EA8}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4039,7 +4039,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C96F1EB-23AD-4BE5-A1D9-02BA52958698}" type="CELLRANGE">
+                    <a:fld id="{202B4C84-EAF7-453A-ABB3-460BFE650911}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4072,7 +4072,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11D88234-C2F3-4DBD-9B78-EF9146550D5F}" type="CELLRANGE">
+                    <a:fld id="{63F98A76-B7FF-4208-B693-9ABED337A13B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4105,7 +4105,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B55A028-A6A9-470C-B998-427021E1CD92}" type="CELLRANGE">
+                    <a:fld id="{67FC31EC-C42D-44EE-B674-44DCB1DFF940}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4138,7 +4138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FC7274E-3408-4F75-A09C-75BE3A71D16C}" type="CELLRANGE">
+                    <a:fld id="{706376C9-5797-4E6A-83CB-F4FCDB5B3325}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4171,7 +4171,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7984703-4F79-4A71-826F-82582D9195A5}" type="CELLRANGE">
+                    <a:fld id="{7F761878-C19C-45BC-867B-AFFC1EAC7635}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4815,7 +4815,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6111768-0991-4782-A41F-78875DE16BE5}" type="CELLRANGE">
+                    <a:fld id="{9E3A05BB-7539-4328-838E-F1CDD955CDC0}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4847,7 +4847,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A8B86F40-A50A-42CA-A61D-E8AB8CCAC41B}" type="CELLRANGE">
+                    <a:fld id="{40C53311-7ED6-40F5-8F6D-1A4DC506F6A2}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4880,7 +4880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61B49926-7E8E-43D6-BC10-EF41EA5834D7}" type="CELLRANGE">
+                    <a:fld id="{24088AEE-AB20-48FA-99C8-DB9598573576}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4913,7 +4913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15E67E67-323E-4DA9-913E-83F66445B430}" type="CELLRANGE">
+                    <a:fld id="{1E571C75-0B51-4CDC-B4F7-2DC874EAFC16}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4946,7 +4946,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65D16379-CB99-49CC-A694-5D94E9A9EAE4}" type="CELLRANGE">
+                    <a:fld id="{938B0CAD-6BCC-4D8E-A91E-438B27B7FFD5}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4979,7 +4979,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F17F37A-BE3F-4922-B51B-32EDD64587D2}" type="CELLRANGE">
+                    <a:fld id="{8E80169A-58ED-4AA6-A3EC-A1B9E0C486E3}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5012,7 +5012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B0FF08E-2B65-40B8-A74A-4A9DD3DBB771}" type="CELLRANGE">
+                    <a:fld id="{215D992F-C4BB-4EBE-BF69-248288A82A8B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5111,7 +5111,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EBF18A8-BC1F-45E4-AE6D-C75059EC7B99}" type="CELLRANGE">
+                    <a:fld id="{31B2C98C-1787-4586-AE68-C814C33DDF7F}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5351,7 +5351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D7ED2A4-4B16-429F-AFB9-211151DCAE97}" type="CELLRANGE">
+                    <a:fld id="{6D319D28-21C7-4B09-861A-F6082343183E}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="ja-JP"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5383,7 +5383,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48D43CCC-6F47-4856-B4BB-E4582A1A97A1}" type="CELLRANGE">
+                    <a:fld id="{4E70AFD5-16E7-4789-80A3-737F125FC37A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5416,7 +5416,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94F7E946-84D8-4ABD-BD5B-363F16BD2313}" type="CELLRANGE">
+                    <a:fld id="{AFBCD9C9-4AFD-42C3-9340-93EF3D0B5FFB}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5449,7 +5449,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB9B06A3-2901-40A4-BEE7-B098162703BD}" type="CELLRANGE">
+                    <a:fld id="{7B04B1FE-EE33-4BF7-8BC2-4060832E0CBE}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5482,7 +5482,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65CCF407-A6B2-4F12-BE24-B1D671743BFF}" type="CELLRANGE">
+                    <a:fld id="{5795E6D0-B5C3-4ED1-84FF-712C26EB255B}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5515,7 +5515,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC545A2C-DFB6-47EF-8398-8A9711CFB884}" type="CELLRANGE">
+                    <a:fld id="{9370F9F6-88BE-4E02-B9D9-1F79280892D3}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5548,7 +5548,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8217EC40-0B2C-4C86-BFBA-E2E7CDC608BE}" type="CELLRANGE">
+                    <a:fld id="{67628670-1D7C-4C21-8CB0-F999372C1AC3}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5581,7 +5581,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{759D5A9F-129B-433C-A6A7-60A208F85ADF}" type="CELLRANGE">
+                    <a:fld id="{6B668F24-5159-495C-9E3E-7336E2FE918A}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5614,7 +5614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF0068C1-5A16-496B-931D-2AAC12917B42}" type="CELLRANGE">
+                    <a:fld id="{F223A82E-2814-4B95-B393-A657057A2181}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5647,7 +5647,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E594004F-AEA6-42ED-B177-9867CEC2C768}" type="CELLRANGE">
+                    <a:fld id="{2B980170-8170-4CE2-B303-C0CB24B2DAE7}" type="CELLRANGE">
                       <a:rPr lang="ja-JP" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8972,7 +8972,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
